--- a/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H50_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.2)/type1/pd_results_W15_H50_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7123287671232876</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4802431610942249</v>
+        <v>0.486322188449848</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1348891358656016</v>
+        <v>0.110416191311987</v>
       </c>
       <c r="J2" t="n">
-        <v>1817.429977906805</v>
+        <v>1425.288918348164</v>
       </c>
       <c r="K2" t="n">
-        <v>4889552.442736005</v>
+        <v>2463484.445974212</v>
       </c>
       <c r="L2" t="n">
-        <v>2211.233240238579</v>
+        <v>1569.549121873607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.08065708469687249</v>
+        <v>0.5368109865085005</v>
       </c>
     </row>
   </sheetData>
